--- a/job-postings-all.xlsx
+++ b/job-postings-all.xlsx
@@ -452,7 +452,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>27005</v>
+        <v>25114</v>
       </c>
     </row>
     <row r="3">
@@ -462,7 +462,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>27005</v>
+        <v>526</v>
       </c>
     </row>
     <row r="4">
@@ -472,7 +472,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>27005</v>
+        <v>506</v>
       </c>
     </row>
     <row r="5">
@@ -482,7 +482,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>27005</v>
+        <v>3428</v>
       </c>
     </row>
     <row r="6">
@@ -492,7 +492,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>27005</v>
+        <v>2248</v>
       </c>
     </row>
     <row r="7">
@@ -502,7 +502,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>27005</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="8">
@@ -512,7 +512,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>27005</v>
+        <v>138</v>
       </c>
     </row>
     <row r="9">
@@ -522,7 +522,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>27005</v>
+        <v>899</v>
       </c>
     </row>
     <row r="10">
@@ -532,7 +532,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>27005</v>
+        <v>423</v>
       </c>
     </row>
     <row r="11">
@@ -542,7 +542,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>27005</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -552,7 +552,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>27005</v>
+        <v>86</v>
       </c>
     </row>
     <row r="13">
@@ -562,7 +562,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>27005</v>
+        <v>208</v>
       </c>
     </row>
   </sheetData>
